--- a/StructureDefinition-profile-ChargeItemDefinition.xlsx
+++ b/StructureDefinition-profile-ChargeItemDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="411">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6360595-06:00</t>
+    <t>2026-02-09T22:05:43.0100572-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -416,38 +416,125 @@
     <t>ChargeItemDefinition.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ChargeItemDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ChargeItemDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `ChargeItemDefinition.versionAlgorithm[x]` is will have a context of ChargeItemDefinition based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ChargeItemDefinition.extension:name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.name|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ChargeItemDefinition.name from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the ChargeItemDefinition. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
+  </si>
+  <si>
+    <t>Element `ChargeItemDefinition.name` is will have a context of ChargeItemDefinition based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
+  </si>
+  <si>
+    <t>ChargeItemDefinition.extension:purpose</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.purpose|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ChargeItemDefinition.purpose from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Explanation of why this charge item definition is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>Element `ChargeItemDefinition.purpose` is will have a context of ChargeItemDefinition based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
+  </si>
+  <si>
+    <t>ChargeItemDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ChargeItemDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `ChargeItemDefinition.copyrightLabel` is will have a context of ChargeItemDefinition based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
+  </si>
+  <si>
+    <t>ChargeItemDefinition.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -894,30 +981,30 @@
     <t>ChargeItemDefinition.instance.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ChargeItemDefinition.instance.extension:instance</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.instance|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for ChargeItemDefinition.instance from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ActivityDefinition,http://hl7.org/fhir/StructureDefinition/DeviceDefinition,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/PlanDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ChargeItemDefinition.instance` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ChargeItemDefinition.instance` is mapped to FHIR R4 element `ChargeItemDefinition.instance`.</t>
   </si>
   <si>
     <t>ChargeItemDefinition.instance.reference</t>
@@ -1019,6 +1106,12 @@
     <t>ChargeItemDefinition.applicability.extension</t>
   </si>
   <si>
+    <t>ChargeItemDefinition.applicability.extension:applicability</t>
+  </si>
+  <si>
+    <t>applicability</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.applicability|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1026,8 +1119,7 @@
     <t>Cross-version extension for ChargeItemDefinition.applicability from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `ChargeItemDefinition.applicability` is mapped to FHIR R4 element `ChargeItemDefinition.applicability`.</t>
   </si>
   <si>
     <t>ChargeItemDefinition.applicability.modifierExtension</t>
@@ -1093,6 +1185,9 @@
     <t>ChargeItemDefinition.propertyGroup.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -1112,6 +1207,9 @@
   </si>
   <si>
     <t>ChargeItemDefinition.propertyGroup.applicability.extension</t>
+  </si>
+  <si>
+    <t>ChargeItemDefinition.propertyGroup.applicability.extension:applicability</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.propertyGroup.applicability|0.0.1-snapshot-3}
@@ -1119,6 +1217,9 @@
   </si>
   <si>
     <t>Cross-version extension for ChargeItemDefinition.propertyGroup.applicability from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ChargeItemDefinition.propertyGroup.applicability` is mapped to FHIR R4 element `ChargeItemDefinition.propertyGroup.applicability`.</t>
   </si>
   <si>
     <t>ChargeItemDefinition.propertyGroup.applicability.modifierExtension</t>
@@ -1505,7 +1606,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1516,7 +1617,7 @@
   <cols>
     <col min="1" max="1" width="59.859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="59.859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2480,7 +2581,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2499,17 +2600,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2546,16 +2645,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>135</v>
@@ -2573,7 +2670,7 @@
         <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2590,43 +2687,43 @@
         <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2674,7 +2771,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2683,13 +2780,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -2703,18 +2800,20 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>86</v>
@@ -2726,23 +2825,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2790,28 +2887,28 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2819,12 +2916,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2833,7 +2932,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2842,23 +2941,21 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2906,7 +3003,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2915,32 +3012,34 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2958,7 +3057,7 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>158</v>
@@ -3020,28 +3119,28 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3049,44 +3148,46 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3134,25 +3235,25 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3174,10 +3275,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3197,8 +3298,12 @@
       <c r="M15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3249,10 +3354,10 @@
         <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
@@ -3264,10 +3369,10 @@
         <v>84</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3275,14 +3380,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3301,16 +3406,20 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3358,7 +3467,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3376,32 +3485,32 @@
         <v>84</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3413,15 +3522,17 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3470,13 +3581,13 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
@@ -3488,10 +3599,10 @@
         <v>84</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3499,10 +3610,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3510,7 +3621,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -3519,22 +3630,22 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3560,13 +3671,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3584,10 +3695,10 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>86</v>
@@ -3602,10 +3713,10 @@
         <v>84</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3613,10 +3724,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3627,7 +3738,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3639,20 +3750,16 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3700,13 +3807,13 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -3718,10 +3825,10 @@
         <v>84</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3729,21 +3836,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3755,17 +3862,15 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3814,13 +3919,13 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
@@ -3832,10 +3937,10 @@
         <v>84</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3843,21 +3948,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3869,7 +3974,7 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>206</v>
@@ -3877,12 +3982,8 @@
       <c r="M21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="N21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3930,13 +4031,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -3948,10 +4049,10 @@
         <v>84</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3959,10 +4060,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3970,31 +4071,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4020,13 +4121,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4044,13 +4145,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4062,10 +4163,10 @@
         <v>84</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4073,10 +4174,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4099,18 +4200,20 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4158,7 +4261,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4176,10 +4279,10 @@
         <v>84</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4194,14 +4297,14 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4213,20 +4316,18 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O24" t="s" s="2">
         <v>229</v>
       </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4280,7 +4381,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4295,7 +4396,7 @@
         <v>230</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4303,10 +4404,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4317,7 +4418,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4329,7 +4430,7 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>233</v>
@@ -4340,7 +4441,9 @@
       <c r="N25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4364,13 +4467,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4388,13 +4491,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4406,10 +4509,10 @@
         <v>84</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4417,21 +4520,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4440,21 +4543,21 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4502,13 +4605,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4520,21 +4623,21 @@
         <v>84</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4554,19 +4657,19 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4616,7 +4719,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4634,21 +4737,21 @@
         <v>84</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4659,7 +4762,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4668,10 +4771,10 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>253</v>
@@ -4732,13 +4835,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4756,7 +4859,7 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -4775,7 +4878,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4798,9 +4901,7 @@
       <c r="N29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="O29" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4824,13 +4925,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4854,7 +4955,7 @@
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -4866,25 +4967,25 @@
         <v>84</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4900,19 +5001,21 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4936,13 +5039,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -4960,7 +5063,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4978,21 +5081,21 @@
         <v>84</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5003,7 +5106,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5015,16 +5118,16 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5074,13 +5177,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5092,21 +5195,21 @@
         <v>84</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5129,16 +5232,20 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5198,27 +5305,27 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5226,11 +5333,11 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5238,19 +5345,23 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5286,51 +5397,51 @@
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5341,7 +5452,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5350,20 +5461,18 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5388,13 +5497,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5412,22 +5521,22 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5441,10 +5550,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5455,7 +5564,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5464,19 +5573,19 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>158</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5526,16 +5635,16 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>98</v>
@@ -5555,10 +5664,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5578,20 +5687,18 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5616,13 +5723,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5640,7 +5747,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5652,10 +5759,10 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5669,10 +5776,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5683,7 +5790,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5692,20 +5799,18 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>131</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5742,34 +5847,34 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5783,12 +5888,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5806,19 +5913,19 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>158</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5868,22 +5975,22 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -5897,10 +6004,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5911,7 +6018,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -5920,19 +6027,19 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5982,16 +6089,16 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>98</v>
@@ -6011,10 +6118,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6034,18 +6141,20 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6070,13 +6179,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6094,7 +6203,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6106,10 +6215,10 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6123,10 +6232,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6134,11 +6243,11 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6146,18 +6255,20 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6194,32 +6305,34 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6233,10 +6346,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6247,7 +6360,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6256,19 +6369,19 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6318,22 +6431,22 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6347,14 +6460,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6367,26 +6480,24 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6434,7 +6545,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6446,7 +6557,7 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>84</v>
@@ -6463,10 +6574,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6489,13 +6600,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6546,7 +6657,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6558,10 +6669,10 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6575,10 +6686,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6589,7 +6700,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6601,13 +6712,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>334</v>
+        <v>132</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6646,34 +6757,32 @@
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6687,12 +6796,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6701,7 +6812,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6713,16 +6824,16 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>158</v>
+        <v>350</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6772,22 +6883,22 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -6801,14 +6912,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6821,22 +6932,26 @@
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>315</v>
+        <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -6884,7 +6999,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6896,7 +7011,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>84</v>
@@ -6913,10 +7028,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6939,13 +7054,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6996,7 +7111,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7008,10 +7123,10 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7025,21 +7140,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7051,17 +7166,15 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7110,22 +7223,22 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7139,46 +7252,44 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7226,19 +7337,19 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>84</v>
@@ -7255,10 +7366,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7281,17 +7392,15 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7340,7 +7449,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7369,10 +7478,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7395,13 +7504,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7452,7 +7561,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7467,7 +7576,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7481,18 +7590,18 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -7507,15 +7616,17 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>282</v>
+        <v>373</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7552,17 +7663,19 @@
         <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7577,7 +7690,7 @@
         <v>136</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7591,14 +7704,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7611,24 +7724,26 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>351</v>
+        <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7676,7 +7791,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>287</v>
+        <v>357</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7685,13 +7800,13 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -7705,14 +7820,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7725,26 +7840,24 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>131</v>
+        <v>342</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7792,7 +7905,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7804,7 +7917,7 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>84</v>
@@ -7821,10 +7934,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7847,13 +7960,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7904,7 +8017,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7916,10 +8029,10 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -7933,10 +8046,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7947,7 +8060,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -7959,13 +8072,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>334</v>
+        <v>132</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8004,34 +8117,32 @@
         <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8045,12 +8156,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8059,7 +8172,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8071,16 +8184,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>158</v>
+        <v>382</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8130,22 +8243,22 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8159,14 +8272,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8179,22 +8292,26 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>315</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8254,7 +8371,7 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>84</v>
@@ -8271,10 +8388,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8297,13 +8414,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8354,7 +8471,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8366,10 +8483,10 @@
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8383,21 +8500,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8409,17 +8526,15 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8468,22 +8583,22 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8497,46 +8612,44 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8584,19 +8697,19 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>84</v>
@@ -8613,10 +8726,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8624,10 +8737,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8639,13 +8752,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>106</v>
+        <v>342</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8672,13 +8785,13 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -8696,13 +8809,13 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
@@ -8725,10 +8838,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8751,13 +8864,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>369</v>
+        <v>304</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>370</v>
+        <v>305</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8808,7 +8921,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8820,10 +8933,10 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -8837,21 +8950,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -8863,7 +8976,7 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>372</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>373</v>
@@ -8871,7 +8984,9 @@
       <c r="M65" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8920,22 +9035,22 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>371</v>
+        <v>310</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -8949,42 +9064,46 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>376</v>
+        <v>130</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9032,19 +9151,19 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>84</v>
@@ -9056,6 +9175,454 @@
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ChargeItemDefinition.xlsx
+++ b/StructureDefinition-profile-ChargeItemDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="406">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0100572-06:00</t>
+    <t>2026-02-17T14:42:26.7494172-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,7 +456,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `ChargeItemDefinition.versionAlgorithm[x]` is will have a context of ChargeItemDefinition based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
+    <t>Element `ChargeItemDefinition.versionAlgorithm[x]` has a context of ChargeItemDefinition based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -479,7 +479,7 @@
     <t>A natural language name identifying the ChargeItemDefinition. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
   </si>
   <si>
-    <t>Element `ChargeItemDefinition.name` is will have a context of ChargeItemDefinition based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
+    <t>Element `ChargeItemDefinition.name` has a context of ChargeItemDefinition based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
   </si>
   <si>
     <t>ChargeItemDefinition.extension:purpose</t>
@@ -498,7 +498,7 @@
     <t>Explanation of why this charge item definition is needed and why it has been designed as it has.</t>
   </si>
   <si>
-    <t>Element `ChargeItemDefinition.purpose` is will have a context of ChargeItemDefinition based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
+    <t>Element `ChargeItemDefinition.purpose` has a context of ChargeItemDefinition based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
   </si>
   <si>
     <t>ChargeItemDefinition.extension:copyrightLabel</t>
@@ -517,7 +517,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `ChargeItemDefinition.copyrightLabel` is will have a context of ChargeItemDefinition based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
+    <t>Element `ChargeItemDefinition.copyrightLabel` has a context of ChargeItemDefinition based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
   </si>
   <si>
     <t>ChargeItemDefinition.modifierExtension</t>
@@ -1004,7 +1004,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ChargeItemDefinition.instance` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ChargeItemDefinition.instance` is mapped to FHIR R4 element `ChargeItemDefinition.instance`.</t>
+Element `ChargeItemDefinition.instance` has is mapped to FHIR R4 element `ChargeItemDefinition.instance`, but has no comparisons.</t>
   </si>
   <si>
     <t>ChargeItemDefinition.instance.reference</t>
@@ -1119,7 +1119,8 @@
     <t>Cross-version extension for ChargeItemDefinition.applicability from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `ChargeItemDefinition.applicability` is mapped to FHIR R4 element `ChargeItemDefinition.applicability`.</t>
+    <t>Element `ChargeItemDefinition.applicability` has is mapped to FHIR R4 element `ChargeItemDefinition.applicability`, but has no comparisons.
+Note available implied context: `ChargeItemDefinition.propertyGroup.applicability` because `ChargeItemDefinition.propertyGroup.applicability` is defined as a content reference to `ChargeItemDefinition.applicability`.</t>
   </si>
   <si>
     <t>ChargeItemDefinition.applicability.modifierExtension</t>
@@ -1185,68 +1186,53 @@
     <t>ChargeItemDefinition.propertyGroup.extension</t>
   </si>
   <si>
+    <t>ChargeItemDefinition.propertyGroup.extension:propertyGroup</t>
+  </si>
+  <si>
+    <t>propertyGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.propertyGroup|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ChargeItemDefinition.propertyGroup from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ChargeItemDefinition.propertyGroup` has is mapped to FHIR R4 element `ChargeItemDefinition.propertyGroup`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>ChargeItemDefinition.propertyGroup.modifierExtension</t>
+  </si>
+  <si>
+    <t>ChargeItemDefinition.propertyGroup.applicability</t>
+  </si>
+  <si>
+    <t>Conditions under which the priceComponent is applicable</t>
+  </si>
+  <si>
+    <t>Expressions that describe applicability criteria for the priceComponent.</t>
+  </si>
+  <si>
+    <t>ChargeItemDefinition.propertyGroup.priceComponent</t>
+  </si>
+  <si>
+    <t>Components of total line item price</t>
+  </si>
+  <si>
+    <t>The price for a ChargeItem may be calculated as a base price with surcharges/deductions that apply in certain conditions. A ChargeItemDefinition resource that defines the prices, factors and conditions that apply to a billing code is currently under development. The priceComponent element can be used to offer transparency to the recipient of the Invoice of how the prices have been calculated.</t>
+  </si>
+  <si>
+    <t>ChargeItemDefinition.propertyGroup.priceComponent.id</t>
+  </si>
+  <si>
+    <t>ChargeItemDefinition.propertyGroup.priceComponent.extension</t>
+  </si>
+  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.propertyGroup.modifierExtension</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.propertyGroup.applicability</t>
-  </si>
-  <si>
-    <t>Conditions under which the priceComponent is applicable</t>
-  </si>
-  <si>
-    <t>Expressions that describe applicability criteria for the priceComponent.</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.propertyGroup.applicability.id</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.propertyGroup.applicability.extension</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.propertyGroup.applicability.extension:applicability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.propertyGroup.applicability|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ChargeItemDefinition.propertyGroup.applicability from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ChargeItemDefinition.propertyGroup.applicability` is mapped to FHIR R4 element `ChargeItemDefinition.propertyGroup.applicability`.</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.propertyGroup.applicability.modifierExtension</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.propertyGroup.applicability.description</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.propertyGroup.applicability.language</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.propertyGroup.applicability.expression</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.propertyGroup.priceComponent</t>
-  </si>
-  <si>
-    <t>Components of total line item price</t>
-  </si>
-  <si>
-    <t>The price for a ChargeItem may be calculated as a base price with surcharges/deductions that apply in certain conditions. A ChargeItemDefinition resource that defines the prices, factors and conditions that apply to a billing code is currently under development. The priceComponent element can be used to offer transparency to the recipient of the Invoice of how the prices have been calculated.</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.propertyGroup.priceComponent.id</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.propertyGroup.priceComponent.extension</t>
   </si>
   <si>
     <t>ChargeItemDefinition.propertyGroup.priceComponent.modifierExtension</t>
@@ -1606,7 +1592,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1625,7 +1611,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="108.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.70703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -7597,7 +7583,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7619,14 +7605,12 @@
         <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7663,16 +7647,14 @@
         <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>310</v>
@@ -7690,7 +7672,7 @@
         <v>136</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7704,14 +7686,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="D54" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7724,26 +7708,24 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7791,7 +7773,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7800,13 +7782,13 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -7820,14 +7802,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7840,24 +7822,26 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>342</v>
+        <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7905,7 +7889,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7917,7 +7901,7 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>84</v>
@@ -7948,7 +7932,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -7960,15 +7944,17 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>304</v>
+        <v>380</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8017,22 +8003,22 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>306</v>
+        <v>379</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8046,10 +8032,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8072,13 +8058,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>130</v>
+        <v>342</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>131</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>132</v>
+        <v>384</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8117,17 +8103,19 @@
         <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8139,10 +8127,10 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8156,14 +8144,12 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8172,7 +8158,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8184,17 +8170,15 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>382</v>
+        <v>185</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>383</v>
+        <v>304</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8243,22 +8227,22 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8272,14 +8256,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8292,26 +8276,24 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="O59" t="s" s="2">
-        <v>167</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8359,7 +8341,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8374,7 +8356,7 @@
         <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8388,42 +8370,46 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8471,19 +8457,19 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>84</v>
@@ -8500,10 +8486,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8511,7 +8497,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>86</v>
@@ -8526,13 +8512,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8559,13 +8545,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8583,10 +8569,10 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>86</v>
@@ -8612,10 +8598,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8638,17 +8624,15 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8697,7 +8681,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8726,10 +8710,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8740,7 +8724,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8752,13 +8736,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8809,13 +8793,13 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
@@ -8838,10 +8822,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8864,13 +8848,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>185</v>
+        <v>403</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>305</v>
+        <v>405</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8921,7 +8905,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>306</v>
+        <v>402</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8933,10 +8917,10 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -8945,684 +8929,6 @@
         <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN70" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ChargeItemDefinition.xlsx
+++ b/StructureDefinition-profile-ChargeItemDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7494172-06:00</t>
+    <t>2026-02-20T11:59:20.7482908-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ChargeItemDefinition|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ChargeItemDefinition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.versionAlgorithm}
 </t>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.name|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.name}
 </t>
   </si>
   <si>
@@ -488,7 +488,7 @@
     <t>purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.purpose|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.purpose}
 </t>
   </si>
   <si>
@@ -507,7 +507,7 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.copyrightLabel|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.copyrightLabel}
 </t>
   </si>
   <si>
@@ -993,7 +993,7 @@
     <t>instance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -1112,7 +1112,7 @@
     <t>applicability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.applicability|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.applicability}
 </t>
   </si>
   <si>
@@ -1192,7 +1192,7 @@
     <t>propertyGroup</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.propertyGroup|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.propertyGroup}
 </t>
   </si>
   <si>
@@ -1611,7 +1611,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.70703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.29296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-ChargeItemDefinition.xlsx
+++ b/StructureDefinition-profile-ChargeItemDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="368">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7482908-06:00</t>
+    <t>2026-02-21T13:36:54.1475726-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ChargeItemDefinition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ChargeItemDefinition|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.versionAlgorithm}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.versionAlgorithm|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.name}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.name|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -488,7 +488,7 @@
     <t>purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.purpose}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.purpose|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -507,7 +507,7 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.copyrightLabel}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.copyrightLabel|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -963,127 +963,6 @@
     <t>In case of highly customized, individually produced or fitted devices/substances, the pricing information may be different for each instance of the product. This reference links pricing details to specific product instances.</t>
   </si>
   <si>
-    <t>ChargeItemDefinition.instance.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.instance.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.instance.extension:instance</t>
-  </si>
-  <si>
-    <t>instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ChargeItemDefinition.instance from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ActivityDefinition,http://hl7.org/fhir/StructureDefinition/DeviceDefinition,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/PlanDefinition in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ChargeItemDefinition.instance` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ChargeItemDefinition.instance` has is mapped to FHIR R4 element `ChargeItemDefinition.instance`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.instance.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.instance.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.instance.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>ChargeItemDefinition.instance.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>ChargeItemDefinition.applicability</t>
   </si>
   <si>
@@ -1103,23 +982,38 @@
     <t>ChargeItemDefinition.applicability.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>ChargeItemDefinition.applicability.extension</t>
   </si>
   <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ChargeItemDefinition.applicability.extension:applicability</t>
   </si>
   <si>
     <t>applicability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.applicability}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.applicability|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for ChargeItemDefinition.applicability from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `ChargeItemDefinition.applicability` has is mapped to FHIR R4 element `ChargeItemDefinition.applicability`, but has no comparisons.
+    <t>Element `ChargeItemDefinition.applicability` is mapped to FHIR R4 element `ChargeItemDefinition.applicability` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note available implied context: `ChargeItemDefinition.propertyGroup.applicability` because `ChargeItemDefinition.propertyGroup.applicability` is defined as a content reference to `ChargeItemDefinition.applicability`.</t>
   </si>
   <si>
@@ -1186,20 +1080,10 @@
     <t>ChargeItemDefinition.propertyGroup.extension</t>
   </si>
   <si>
-    <t>ChargeItemDefinition.propertyGroup.extension:propertyGroup</t>
-  </si>
-  <si>
-    <t>propertyGroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.propertyGroup}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ChargeItemDefinition.propertyGroup from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ChargeItemDefinition.propertyGroup` has is mapped to FHIR R4 element `ChargeItemDefinition.propertyGroup`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>ChargeItemDefinition.propertyGroup.modifierExtension</t>
@@ -1227,12 +1111,6 @@
   </si>
   <si>
     <t>ChargeItemDefinition.propertyGroup.priceComponent.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>ChargeItemDefinition.propertyGroup.priceComponent.modifierExtension</t>
@@ -1592,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1611,7 +1489,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.29296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.70703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1629,7 +1507,7 @@
     <col min="26" max="26" width="52.69921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="51.5234375" customWidth="true" bestFit="true" hidden="true"/>
@@ -5664,7 +5542,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5676,15 +5554,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>185</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5733,22 +5613,22 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5776,7 +5656,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5788,13 +5668,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>132</v>
+        <v>310</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5833,34 +5713,34 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5874,14 +5754,12 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5890,7 +5768,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5902,17 +5780,15 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>313</v>
+        <v>130</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>131</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5949,19 +5825,17 @@
         <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5990,12 +5864,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6004,7 +5880,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6013,19 +5889,19 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>318</v>
       </c>
       <c r="M39" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6075,22 +5951,22 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>322</v>
+        <v>143</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6104,44 +5980,46 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6165,13 +6043,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6189,19 +6067,19 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>84</v>
@@ -6218,10 +6096,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6241,20 +6119,18 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6303,7 +6179,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6318,7 +6194,7 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>335</v>
+        <v>84</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6332,10 +6208,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6355,20 +6231,18 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>185</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6417,7 +6291,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6446,10 +6320,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6460,7 +6334,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6472,16 +6346,16 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>342</v>
+        <v>185</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6531,13 +6405,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6560,10 +6434,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6574,7 +6448,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6586,13 +6460,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>185</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6643,22 +6517,22 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6672,10 +6546,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6686,7 +6560,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6698,13 +6572,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>132</v>
+        <v>310</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6743,32 +6617,34 @@
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6782,16 +6658,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6810,16 +6684,16 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>352</v>
+        <v>166</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6869,7 +6743,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6878,13 +6752,13 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -6898,14 +6772,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6927,10 +6801,10 @@
         <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>166</v>
@@ -6985,7 +6859,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7014,10 +6888,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7028,7 +6902,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7040,15 +6914,17 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7097,13 +6973,13 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
@@ -7126,10 +7002,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7140,7 +7016,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7152,13 +7028,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>185</v>
+        <v>304</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7209,13 +7085,13 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7238,10 +7114,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7267,14 +7143,12 @@
         <v>185</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7323,7 +7197,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7335,10 +7209,10 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7352,14 +7226,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7378,15 +7252,17 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>342</v>
+        <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7435,7 +7311,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7447,10 +7323,10 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7464,42 +7340,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7547,22 +7427,22 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7576,10 +7456,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7587,10 +7467,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7602,13 +7482,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>131</v>
+        <v>353</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7635,44 +7515,46 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7686,14 +7568,12 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7702,7 +7582,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7714,17 +7594,15 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7773,22 +7651,22 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -7802,46 +7680,42 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>130</v>
+        <v>361</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7889,19 +7763,19 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>84</v>
@@ -7918,10 +7792,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7932,7 +7806,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -7944,17 +7818,15 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8003,13 +7875,13 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -8027,908 +7899,6 @@
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN64" t="s" s="2">
         <v>77</v>
       </c>
     </row>
